--- a/Prissatser_nettleie_Tensio.xlsx
+++ b/Prissatser_nettleie_Tensio.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmund.fossum\Documents\Strømpriser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA754B-E9E6-45CE-AD95-C61B93474EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8959AD34-5B36-4198-BDF6-D34B83C82008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{846E382B-0241-4CBD-8E39-0843AEB05BE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{846E382B-0241-4CBD-8E39-0843AEB05BE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Privatkunde" sheetId="1" r:id="rId1"/>
-    <sheet name="Mindre næringskunde" sheetId="2" r:id="rId2"/>
+    <sheet name="Privatkunde" sheetId="2" r:id="rId1"/>
+    <sheet name="Mindre næringskunde" sheetId="1" r:id="rId2"/>
     <sheet name="Større næringskunde" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Kapasitetsledd</t>
   </si>
@@ -109,18 +109,9 @@
     <t>Sluttid for reduksjon</t>
   </si>
   <si>
-    <t>Pris ekskl. mva. (kr/kWh)</t>
-  </si>
-  <si>
-    <t>Pris inkl. mva. (kr/kWh)</t>
-  </si>
-  <si>
     <t>Reduksjon også i helger?</t>
   </si>
   <si>
-    <t>Ja</t>
-  </si>
-  <si>
     <t>Nei</t>
   </si>
   <si>
@@ -139,18 +130,12 @@
     <t>øre/kWh</t>
   </si>
   <si>
-    <t>Effektledd vinter (okt – mars)</t>
-  </si>
-  <si>
     <t>kr/kW/år</t>
   </si>
   <si>
     <t>kr/kW/mnd</t>
   </si>
   <si>
-    <t>Effektledd sommer (apr – sept)</t>
-  </si>
-  <si>
     <t>Forbruksavgift (jan – mars)</t>
   </si>
   <si>
@@ -170,13 +155,43 @@
   </si>
   <si>
     <t>Høyspent ekskl.mva/fba</t>
+  </si>
+  <si>
+    <t>Inkl. mva. (kr/mnd)</t>
+  </si>
+  <si>
+    <t>Pris ekskl. mva. inkl. fba (kr/kWh)</t>
+  </si>
+  <si>
+    <t>Pris inkl. fba og mva. (kr/kWh)</t>
+  </si>
+  <si>
+    <t>Effektledd vinter (nov – apr)</t>
+  </si>
+  <si>
+    <t>Effektledd sommer (mai – okt)</t>
+  </si>
+  <si>
+    <t>Kapasitetstrinn 11</t>
+  </si>
+  <si>
+    <t>Kapasitetstrinn 12</t>
+  </si>
+  <si>
+    <t>Kapasitetstrinn 13</t>
+  </si>
+  <si>
+    <t>Kapasitetstrinn 14</t>
+  </si>
+  <si>
+    <t>Kapasitetstrinn 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +221,12 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -233,10 +254,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -245,15 +275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -275,17 +302,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,11 +639,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711BC047-462D-4916-A1EB-232D01805D89}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF15A06-53F4-4CEC-A80E-4A8322FD1FCA}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>91</v>
+      </c>
+      <c r="E2" s="16">
+        <f>(D2)/1.25</f>
+        <v>72.8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5">
+        <f>(H2)/1.25</f>
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>162</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" ref="E3:E16" si="0">(D3)/1.25</f>
+        <v>129.6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G4" si="1">(H3)/1.25</f>
+        <v>7.6960000000000001E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>277</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
+        <v>221.6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>408</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <v>539</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>431.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5">
+        <v>671</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>536.79999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1153</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>922.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>50</v>
+      </c>
+      <c r="C9" s="13">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1810</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>75</v>
+      </c>
+      <c r="C10" s="13">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2467</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>1973.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>100</v>
+      </c>
+      <c r="C11" s="13">
+        <v>150</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3563</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>2850.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13">
+        <v>150</v>
+      </c>
+      <c r="C12" s="13">
+        <v>200</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4876</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>3900.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13">
+        <v>200</v>
+      </c>
+      <c r="C13" s="13">
+        <v>300</v>
+      </c>
+      <c r="D13" s="13">
+        <v>7066</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>5652.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13">
+        <v>300</v>
+      </c>
+      <c r="C14" s="13">
+        <v>400</v>
+      </c>
+      <c r="D14" s="13">
+        <v>9697</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
+        <v>7757.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="13">
+        <v>400</v>
+      </c>
+      <c r="C15" s="13">
+        <v>500</v>
+      </c>
+      <c r="D15" s="13">
+        <v>12324</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>9859.2000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13">
+        <v>500</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="13">
+        <v>14953</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
+        <v>11962.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711BC047-462D-4916-A1EB-232D01805D89}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,10 +1034,10 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
@@ -628,20 +1050,23 @@
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -654,24 +1079,29 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="13">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="D2" s="6">
-        <v>135</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>(E2)*1.25</f>
+        <v>91</v>
+      </c>
+      <c r="E2" s="17">
+        <v>72.8</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
-        <f>(H2)/1.25</f>
-        <v>0.376</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.47</v>
+      <c r="G2" s="5">
+        <f>0.154+0.1584</f>
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="H2" s="5">
+        <f>(G2)*1.25</f>
+        <v>0.39050000000000001</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -684,24 +1114,29 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>4.99</v>
-      </c>
-      <c r="D3" s="6">
-        <v>170</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D16" si="0">(E3)*1.25</f>
+        <v>162</v>
+      </c>
+      <c r="E3" s="17">
+        <v>129.6</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G4" si="0">(H3)/1.25</f>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.12</v>
+      <c r="G3" s="5">
+        <f>0.077+0.1584</f>
+        <v>0.2354</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H4" si="1">(G3)*1.25</f>
+        <v>0.29425000000000001</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -714,378 +1149,259 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="13">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>9.99</v>
-      </c>
-      <c r="D4" s="6">
-        <v>290</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="E4" s="17">
+        <v>221.6</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
+      <c r="G4" s="5">
         <v>0.01</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="13">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>14.99</v>
-      </c>
-      <c r="D5" s="6">
-        <v>600</v>
-      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="E5" s="17">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="13">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="D6" s="6">
-        <v>780</v>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+      <c r="E6" s="17">
+        <v>431.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="13">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>24.99</v>
-      </c>
-      <c r="D7" s="6">
-        <v>980</v>
+      <c r="C7" s="5">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+      <c r="E7" s="17">
+        <v>536.79999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="13">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
-        <v>49.99</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1520</v>
+      <c r="C8" s="5">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>1153</v>
+      </c>
+      <c r="E8" s="17">
+        <v>922.4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="13">
         <v>50</v>
       </c>
-      <c r="C9" s="2">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2400</v>
+      <c r="C9" s="5">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>1810</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1448</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="13">
         <v>75</v>
       </c>
-      <c r="C10" s="2">
-        <v>99.99</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3200</v>
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>2467</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1973.6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="13">
         <v>100</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
+        <v>150</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>3563</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2850.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>4876</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3900.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13">
+        <v>200</v>
+      </c>
+      <c r="C13" s="5">
+        <v>300</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>7066</v>
+      </c>
+      <c r="E13" s="17">
+        <v>5652.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13">
+        <v>300</v>
+      </c>
+      <c r="C14" s="5">
+        <v>400</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>9697</v>
+      </c>
+      <c r="E14" s="17">
+        <v>7757.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="13">
+        <v>400</v>
+      </c>
+      <c r="C15" s="5">
+        <v>500</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>12324</v>
+      </c>
+      <c r="E15" s="17">
+        <v>9859.2000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13">
+        <v>500</v>
+      </c>
+      <c r="C16" s="5">
         <v>10000</v>
       </c>
-      <c r="D11" s="6">
-        <v>5200</v>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>14953</v>
+      </c>
+      <c r="E16" s="17">
+        <v>11962.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF15A06-53F4-4CEC-A80E-4A8322FD1FCA}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="D2" s="2">
-        <v>174.67</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <f>(G2)*1.25</f>
-        <v>0.45750000000000002</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.99</v>
-      </c>
-      <c r="D3" s="2">
-        <v>202.67</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H4" si="0">(G3)*1.25</f>
-        <v>0.12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.99</v>
-      </c>
-      <c r="D4" s="2">
-        <v>298.67</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14.99</v>
-      </c>
-      <c r="D5" s="2">
-        <v>546.66999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="D6" s="2">
-        <v>690.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2">
-        <v>24.99</v>
-      </c>
-      <c r="D7" s="2">
-        <v>850.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2">
-        <v>49.99</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1282.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1986.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2">
-        <v>99.99</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2626.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4226.67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1093,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DB0D84-46A6-47E1-B7A1-73857261DBF1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,164 +1428,170 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4923</v>
+      </c>
+      <c r="C2" s="11">
+        <v>16658</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="7">
+        <f>B2/12</f>
+        <v>410.25</v>
+      </c>
+      <c r="C3" s="7">
+        <f>C2/12</f>
+        <v>1388.1666666666667</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11">
+        <f>B6*12</f>
+        <v>576</v>
+      </c>
+      <c r="C5" s="11">
+        <f>C6*12</f>
+        <v>480</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="7">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B7" s="9">
+        <f>B8*12</f>
+        <v>396</v>
+      </c>
+      <c r="C7" s="9">
+        <f>C8*12</f>
+        <v>360</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="9">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15.84</v>
+      </c>
+      <c r="C9" s="7">
+        <v>15.84</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="14">
-        <v>6000</v>
-      </c>
-      <c r="C2" s="14">
-        <v>6000</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8">
-        <v>500</v>
-      </c>
-      <c r="C3" s="8">
-        <v>500</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="14">
-        <v>1080</v>
-      </c>
-      <c r="C5" s="8">
-        <v>936</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B10" s="9">
+        <v>15.84</v>
+      </c>
+      <c r="C10" s="9">
+        <v>15.84</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8">
-        <v>90</v>
-      </c>
-      <c r="C6" s="8">
-        <v>78</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B11" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="10">
-        <v>360</v>
-      </c>
-      <c r="C7" s="10">
-        <v>300</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8">
-        <v>9.16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9.16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="10">
-        <v>15.84</v>
-      </c>
-      <c r="C10" s="10">
-        <v>15.84</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>800</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>800</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>30</v>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Prissatser_nettleie_Tensio.xlsx
+++ b/Prissatser_nettleie_Tensio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmund.fossum\Documents\Strømpriser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmund.fossum\Documents\Strompriser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8959AD34-5B36-4198-BDF6-D34B83C82008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F318E-49CF-404E-95BD-D076D03616FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{846E382B-0241-4CBD-8E39-0843AEB05BE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{846E382B-0241-4CBD-8E39-0843AEB05BE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Privatkunde" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Kapasitetsledd</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Kapasitetstrinn 15</t>
+  </si>
+  <si>
+    <t>Energiledd sommer</t>
+  </si>
+  <si>
+    <t>Energiledd vinter</t>
   </si>
 </sst>
 </file>
@@ -314,17 +320,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +390,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,26 +648,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF15A06-53F4-4CEC-A80E-4A8322FD1FCA}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -706,7 +712,7 @@
       <c r="D2" s="5">
         <v>91</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <f>(D2)/1.25</f>
         <v>72.8</v>
       </c>
@@ -727,7 +733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -740,7 +746,7 @@
       <c r="D3" s="5">
         <v>162</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <f t="shared" ref="E3:E16" si="0">(D3)/1.25</f>
         <v>129.6</v>
       </c>
@@ -761,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,7 +780,7 @@
       <c r="D4" s="5">
         <v>277</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>221.6</v>
       </c>
@@ -795,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -808,7 +814,7 @@
       <c r="D5" s="5">
         <v>408</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>326.39999999999998</v>
       </c>
@@ -816,7 +822,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -829,12 +835,12 @@
       <c r="D6" s="5">
         <v>539</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>431.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -847,12 +853,12 @@
       <c r="D7" s="5">
         <v>671</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>536.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -865,12 +871,12 @@
       <c r="D8" s="5">
         <v>1153</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>922.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -883,12 +889,12 @@
       <c r="D9" s="5">
         <v>1810</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>1448</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -901,12 +907,12 @@
       <c r="D10" s="5">
         <v>2467</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>1973.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -919,12 +925,12 @@
       <c r="D11" s="5">
         <v>3563</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>2850.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -937,12 +943,12 @@
       <c r="D12" s="13">
         <v>4876</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>3900.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -955,12 +961,12 @@
       <c r="D13" s="13">
         <v>7066</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>5652.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -973,12 +979,12 @@
       <c r="D14" s="13">
         <v>9697</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>7757.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -991,12 +997,12 @@
       <c r="D15" s="13">
         <v>12324</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>9859.2000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1009,7 +1015,7 @@
       <c r="D16" s="13">
         <v>14953</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>11962.4</v>
       </c>
@@ -1025,25 +1031,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711BC047-462D-4916-A1EB-232D01805D89}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1095,7 @@
         <f>(E2)*1.25</f>
         <v>91</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>72.8</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1110,7 +1116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1130,7 @@
         <f t="shared" ref="D3:D16" si="0">(E3)*1.25</f>
         <v>162</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>129.6</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1145,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1159,7 +1165,7 @@
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>221.6</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1179,7 +1185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1193,14 +1199,14 @@
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>326.39999999999998</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1214,11 +1220,11 @@
         <f t="shared" si="0"/>
         <v>539</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>431.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1232,11 +1238,11 @@
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>536.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1250,11 +1256,11 @@
         <f t="shared" si="0"/>
         <v>1153</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>922.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1268,11 +1274,11 @@
         <f t="shared" si="0"/>
         <v>1810</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>1448</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1286,11 +1292,11 @@
         <f t="shared" si="0"/>
         <v>2467</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>1973.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1304,11 +1310,11 @@
         <f t="shared" si="0"/>
         <v>3563</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>2850.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1322,11 +1328,11 @@
         <f t="shared" si="0"/>
         <v>4876</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>3900.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1340,11 +1346,11 @@
         <f t="shared" si="0"/>
         <v>7066</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>5652.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1358,11 +1364,11 @@
         <f t="shared" si="0"/>
         <v>9697</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>7757.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1376,11 +1382,11 @@
         <f t="shared" si="0"/>
         <v>12324</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>9859.2000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1394,7 +1400,7 @@
         <f t="shared" si="0"/>
         <v>14953</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>11962.4</v>
       </c>
     </row>
@@ -1407,26 +1413,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DB0D84-46A6-47E1-B7A1-73857261DBF1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1440,8 +1446,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="11">
@@ -1454,8 +1460,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
       <c r="B3" s="7">
         <f>B2/12</f>
         <v>410.25</v>
@@ -1468,137 +1474,149 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="11">
-        <f>B6*12</f>
+      <c r="B6" s="11">
+        <f>B7*12</f>
         <v>576</v>
       </c>
-      <c r="C5" s="11">
-        <f>C6*12</f>
+      <c r="C6" s="11">
+        <f>C7*12</f>
         <v>480</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="7">
         <v>48</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9">
-        <f>B8*12</f>
+      <c r="B8" s="9">
+        <f>B9*12</f>
         <v>396</v>
       </c>
-      <c r="C7" s="9">
-        <f>C8*12</f>
+      <c r="C8" s="9">
+        <f>C9*12</f>
         <v>360</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9">
         <v>33</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="9">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>15.84</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>15.84</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B11" s="9">
         <v>15.84</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="9">
         <v>15.84</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <v>0.54600000000000004</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="9">
         <v>800</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="9">
         <v>800</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
